--- a/data/trans_bre/P23_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.02582777602129</v>
+        <v>-26.12799539861343</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.04988623273076</v>
+        <v>-20.28783454080733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.90940143542901</v>
+        <v>-15.97867581656612</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5398991144510201</v>
+        <v>-0.539219070738772</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4025381071000371</v>
+        <v>-0.4049950625525494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3495098282702555</v>
+        <v>-0.3513961724844179</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-15.9783479430676</v>
+        <v>-15.43397570110681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-11.84687973116542</v>
+        <v>-11.69162530351795</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.979519275851009</v>
+        <v>-8.064918658333564</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.3811804299623864</v>
+        <v>-0.3664971745601389</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2582354725936111</v>
+        <v>-0.2578456294542398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1918617133061022</v>
+        <v>-0.1955113005676485</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-23.60444363759876</v>
+        <v>-23.51016511270274</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-19.16867224649614</v>
+        <v>-18.58210158057176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-14.23905586288141</v>
+        <v>-14.47714404372695</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4939978574059409</v>
+        <v>-0.4907265581446899</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4324868343005707</v>
+        <v>-0.4300776566380027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3701838479532406</v>
+        <v>-0.3763291472593964</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-15.70256011849831</v>
+        <v>-15.21762076255565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-10.74991180744411</v>
+        <v>-10.68912271256331</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.573088547168837</v>
+        <v>-5.967075647936305</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3563749425582484</v>
+        <v>-0.3498940196504827</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2696844247160234</v>
+        <v>-0.2739516944703195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1645010909352503</v>
+        <v>-0.1724119087955152</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.37171005560334</v>
+        <v>-19.76490237879056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.96537796703626</v>
+        <v>-11.44685121336373</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.22525559416861</v>
+        <v>-10.06670804928834</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4580986260869513</v>
+        <v>-0.4615086909195071</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3247356563045447</v>
+        <v>-0.3308144173736224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3532228652511989</v>
+        <v>-0.3451087321834594</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-11.55862457307062</v>
+        <v>-11.53199024413984</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.304480264124234</v>
+        <v>-2.14453497034375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.715962094904206</v>
+        <v>-1.398185312154908</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2964013108094264</v>
+        <v>-0.2970823831618071</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.07871549665172803</v>
+        <v>-0.070787792096956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.0714803119137003</v>
+        <v>-0.05308299924756086</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.61244897676777</v>
+        <v>-14.06907800199446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.97210269264784</v>
+        <v>-15.1628980562109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.14817837997927</v>
+        <v>-11.84170827997296</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3577176831436561</v>
+        <v>-0.3589675016928322</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4268744242105205</v>
+        <v>-0.4372799246986083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4273160594649956</v>
+        <v>-0.4224285045550398</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0963387218485133</v>
+        <v>-0.4707849115854818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.243728462520373</v>
+        <v>-2.738569325046249</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.833701987423926</v>
+        <v>-1.193367807256312</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.002883494831624742</v>
+        <v>-0.01319728936893915</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1122826822635562</v>
+        <v>-0.09804141502337828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03540517590799338</v>
+        <v>-0.0515800117713008</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-19.11026831658263</v>
+        <v>-19.16573688439804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.43036175316997</v>
+        <v>-14.25704996208923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.27110522065778</v>
+        <v>-11.43347655722296</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4383333069497715</v>
+        <v>-0.4392616062767603</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.355156132170988</v>
+        <v>-0.3504834819141127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3116267679306761</v>
+        <v>-0.3133769452686619</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.64876527024399</v>
+        <v>-14.60894046875467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-9.680929662901564</v>
+        <v>-9.696257415526368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.972581857624403</v>
+        <v>-6.925612345892085</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.353363976860014</v>
+        <v>-0.3541788774342908</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2538580742096027</v>
+        <v>-0.2512064350753767</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2056007324784745</v>
+        <v>-0.2035461686536484</v>
       </c>
     </row>
     <row r="19">
